--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Areg-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Areg-Egfr.xlsx
@@ -534,22 +534,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.484834666666667</v>
+        <v>0.2247043333333333</v>
       </c>
       <c r="H2">
-        <v>4.454504</v>
+        <v>0.674113</v>
       </c>
       <c r="I2">
-        <v>0.4307162850350085</v>
+        <v>0.2389319335355998</v>
       </c>
       <c r="J2">
-        <v>0.4307162850350084</v>
+        <v>0.2389319335355999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>2.33732279384</v>
+        <v>0.3824309711285555</v>
       </c>
       <c r="R2">
-        <v>21.03590514456</v>
+        <v>3.441878740157</v>
       </c>
       <c r="S2">
-        <v>0.008721413262145667</v>
+        <v>0.005031005477199709</v>
       </c>
       <c r="T2">
-        <v>0.008721413262145665</v>
+        <v>0.00503100547719971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.484834666666667</v>
+        <v>0.2247043333333333</v>
       </c>
       <c r="H3">
-        <v>4.454504</v>
+        <v>0.674113</v>
       </c>
       <c r="I3">
-        <v>0.4307162850350085</v>
+        <v>0.2389319335355998</v>
       </c>
       <c r="J3">
-        <v>0.4307162850350084</v>
+        <v>0.2389319335355999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>92.808027309096</v>
+        <v>14.044907741337</v>
       </c>
       <c r="R3">
-        <v>835.2722457818641</v>
+        <v>126.404169672033</v>
       </c>
       <c r="S3">
-        <v>0.346300974063292</v>
+        <v>0.1847653906400756</v>
       </c>
       <c r="T3">
-        <v>0.346300974063292</v>
+        <v>0.1847653906400757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.484834666666667</v>
+        <v>0.2247043333333333</v>
       </c>
       <c r="H4">
-        <v>4.454504</v>
+        <v>0.674113</v>
       </c>
       <c r="I4">
-        <v>0.4307162850350085</v>
+        <v>0.2389319335355998</v>
       </c>
       <c r="J4">
-        <v>0.4307162850350084</v>
+        <v>0.2389319335355999</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>0.2715807150373334</v>
+        <v>0.09749224439900001</v>
       </c>
       <c r="R4">
-        <v>2.444226435336</v>
+        <v>0.8774301995910001</v>
       </c>
       <c r="S4">
-        <v>0.001013367796742473</v>
+        <v>0.001282542609215046</v>
       </c>
       <c r="T4">
-        <v>0.001013367796742473</v>
+        <v>0.001282542609215047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.484834666666667</v>
+        <v>0.2247043333333333</v>
       </c>
       <c r="H5">
-        <v>4.454504</v>
+        <v>0.674113</v>
       </c>
       <c r="I5">
-        <v>0.4307162850350085</v>
+        <v>0.2389319335355998</v>
       </c>
       <c r="J5">
-        <v>0.4307162850350084</v>
+        <v>0.2389319335355999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>19.87495647384356</v>
+        <v>3.589063898464</v>
       </c>
       <c r="R5">
-        <v>178.874608264592</v>
+        <v>32.301575086176</v>
       </c>
       <c r="S5">
-        <v>0.07416079175387222</v>
+        <v>0.04721531856561464</v>
       </c>
       <c r="T5">
-        <v>0.0741607917538722</v>
+        <v>0.04721531856561465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.484834666666667</v>
+        <v>0.2247043333333333</v>
       </c>
       <c r="H6">
-        <v>4.454504</v>
+        <v>0.674113</v>
       </c>
       <c r="I6">
-        <v>0.4307162850350085</v>
+        <v>0.2389319335355998</v>
       </c>
       <c r="J6">
-        <v>0.4307162850350084</v>
+        <v>0.2389319335355999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>0.1392888754657778</v>
+        <v>0.04847284427944444</v>
       </c>
       <c r="R6">
-        <v>1.253599879192</v>
+        <v>0.436255598515</v>
       </c>
       <c r="S6">
-        <v>0.000519738158956126</v>
+        <v>0.0006376762434948209</v>
       </c>
       <c r="T6">
-        <v>0.0005197381589561259</v>
+        <v>0.0006376762434948211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8156833333333333</v>
+        <v>0.4451493333333333</v>
       </c>
       <c r="H7">
-        <v>2.44705</v>
+        <v>1.335448</v>
       </c>
       <c r="I7">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063742</v>
       </c>
       <c r="J7">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>1.2839916055</v>
+        <v>0.7576128564968888</v>
       </c>
       <c r="R7">
-        <v>11.5559244495</v>
+        <v>6.818515708472</v>
       </c>
       <c r="S7">
-        <v>0.004791046168806571</v>
+        <v>0.009966646841872798</v>
       </c>
       <c r="T7">
-        <v>0.004791046168806571</v>
+        <v>0.0099666468418728</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8156833333333333</v>
+        <v>0.4451493333333333</v>
       </c>
       <c r="H8">
-        <v>2.44705</v>
+        <v>1.335448</v>
       </c>
       <c r="I8">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063742</v>
       </c>
       <c r="J8">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063743</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
-        <v>50.98342783545</v>
+        <v>27.823590337752</v>
       </c>
       <c r="R8">
-        <v>458.85085051905</v>
+        <v>250.412313039768</v>
       </c>
       <c r="S8">
-        <v>0.1902379700594227</v>
+        <v>0.3660285017489764</v>
       </c>
       <c r="T8">
-        <v>0.1902379700594227</v>
+        <v>0.3660285017489765</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8156833333333333</v>
+        <v>0.4451493333333333</v>
       </c>
       <c r="H9">
-        <v>2.44705</v>
+        <v>1.335448</v>
       </c>
       <c r="I9">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063742</v>
       </c>
       <c r="J9">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063743</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>0.1491909287166667</v>
+        <v>0.193136496104</v>
       </c>
       <c r="R9">
-        <v>1.34271835845</v>
+        <v>1.738228464936</v>
       </c>
       <c r="S9">
-        <v>0.0005566863711467467</v>
+        <v>0.002540774265428816</v>
       </c>
       <c r="T9">
-        <v>0.0005566863711467467</v>
+        <v>0.002540774265428817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8156833333333333</v>
+        <v>0.4451493333333333</v>
       </c>
       <c r="H10">
-        <v>2.44705</v>
+        <v>1.335448</v>
       </c>
       <c r="I10">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063742</v>
       </c>
       <c r="J10">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063743</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>10.91816557787778</v>
+        <v>7.110096089344</v>
       </c>
       <c r="R10">
-        <v>98.26349020089999</v>
+        <v>63.990864804096</v>
       </c>
       <c r="S10">
-        <v>0.04073970198731733</v>
+        <v>0.09353565759422076</v>
       </c>
       <c r="T10">
-        <v>0.04073970198731733</v>
+        <v>0.09353565759422079</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8156833333333333</v>
+        <v>0.4451493333333333</v>
       </c>
       <c r="H11">
-        <v>2.44705</v>
+        <v>1.335448</v>
       </c>
       <c r="I11">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063742</v>
       </c>
       <c r="J11">
-        <v>0.2366109190372076</v>
+        <v>0.4733348456063743</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>0.07651735023888888</v>
+        <v>0.09602687227111112</v>
       </c>
       <c r="R11">
-        <v>0.68865615215</v>
+        <v>0.86424185044</v>
       </c>
       <c r="S11">
-        <v>0.0002855144505142633</v>
+        <v>0.001263265155875457</v>
       </c>
       <c r="T11">
-        <v>0.0002855144505142633</v>
+        <v>0.001263265155875457</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.146843333333333</v>
+        <v>0.2705996666666666</v>
       </c>
       <c r="H12">
-        <v>3.44053</v>
+        <v>0.8117989999999999</v>
       </c>
       <c r="I12">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="J12">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N12">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q12">
-        <v>1.8052804963</v>
+        <v>0.460541600490111</v>
       </c>
       <c r="R12">
-        <v>16.2475244667</v>
+        <v>4.144874404411</v>
       </c>
       <c r="S12">
-        <v>0.006736167252473008</v>
+        <v>0.00605857655227721</v>
       </c>
       <c r="T12">
-        <v>0.006736167252473008</v>
+        <v>0.00605857655227721</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.146843333333333</v>
+        <v>0.2705996666666666</v>
       </c>
       <c r="H13">
-        <v>3.44053</v>
+        <v>0.8117989999999999</v>
       </c>
       <c r="I13">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="J13">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P13">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q13">
-        <v>71.68223492397</v>
+        <v>16.913547223551</v>
       </c>
       <c r="R13">
-        <v>645.14011431573</v>
+        <v>152.221925011959</v>
       </c>
       <c r="S13">
-        <v>0.2674728522623344</v>
+        <v>0.2225032885528431</v>
       </c>
       <c r="T13">
-        <v>0.2674728522623345</v>
+        <v>0.2225032885528432</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.146843333333333</v>
+        <v>0.2705996666666666</v>
       </c>
       <c r="H14">
-        <v>3.44053</v>
+        <v>0.8117989999999999</v>
       </c>
       <c r="I14">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="J14">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N14">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q14">
-        <v>0.2097610861966667</v>
+        <v>0.117404806777</v>
       </c>
       <c r="R14">
-        <v>1.88784977577</v>
+        <v>1.056643260993</v>
       </c>
       <c r="S14">
-        <v>0.0007826959647418387</v>
+        <v>0.001544498930621669</v>
       </c>
       <c r="T14">
-        <v>0.0007826959647418387</v>
+        <v>0.00154449893062167</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.146843333333333</v>
+        <v>0.2705996666666666</v>
       </c>
       <c r="H15">
-        <v>3.44053</v>
+        <v>0.8117989999999999</v>
       </c>
       <c r="I15">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="J15">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N15">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q15">
-        <v>15.35084130510444</v>
+        <v>4.322121786272</v>
       </c>
       <c r="R15">
-        <v>138.15757174594</v>
+        <v>38.899096076448</v>
       </c>
       <c r="S15">
-        <v>0.05727964973270872</v>
+        <v>0.0568589367008905</v>
       </c>
       <c r="T15">
-        <v>0.05727964973270872</v>
+        <v>0.05685893670089052</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.146843333333333</v>
+        <v>0.2705996666666666</v>
       </c>
       <c r="H16">
-        <v>3.44053</v>
+        <v>0.8117989999999999</v>
       </c>
       <c r="I16">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="J16">
-        <v>0.332672795927784</v>
+        <v>0.2877332208580259</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N16">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q16">
-        <v>0.1075826971322222</v>
+        <v>0.05837330909388888</v>
       </c>
       <c r="R16">
-        <v>0.9682442741899999</v>
+        <v>0.525359781845</v>
       </c>
       <c r="S16">
-        <v>0.0004014307155259755</v>
+        <v>0.0007679201213933749</v>
       </c>
       <c r="T16">
-        <v>0.0004014307155259755</v>
+        <v>0.000767920121393375</v>
       </c>
     </row>
   </sheetData>
